--- a/medicine/Mort/Cimetière_israélite_de_Belfort/Cimetière_israélite_de_Belfort.xlsx
+++ b/medicine/Mort/Cimetière_israélite_de_Belfort/Cimetière_israélite_de_Belfort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_isra%C3%A9lite_de_Belfort</t>
+          <t>Cimetière_israélite_de_Belfort</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cimetière israélite de Belfort est un cimetière, ouvert en 1811 et protégé des monuments historiques, situé au 51 Faubourg de Lyon à Belfort, en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_isra%C3%A9lite_de_Belfort</t>
+          <t>Cimetière_israélite_de_Belfort</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une partie du cimetière est inscrite au titre des monuments historiques en 2009[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une partie du cimetière est inscrite au titre des monuments historiques en 2009.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_isra%C3%A9lite_de_Belfort</t>
+          <t>Cimetière_israélite_de_Belfort</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Personnalités enterrées dans ce cimetière[2]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées dans ce cimetière:
 Jacques Dreyfus  (1844-1915), manufacturier (filature de coton) qui céda une partie de ses activités à Marcel Boussac, frère aîné du capitaine Alfred Dreyfus
 Michel Dreyfus-Schmidt (1932-2008), homme politique français, conseiller municipal de Belfort (1964-1971; 1977-2008), député du Territoire de Belfort (1967-1968),  sénateur du Territoire de Belfort (1980-2008), vice-président du Sénat (1986 - 1998)
 Pierre Dreyfus-Schmidt, (1902-1964), homme politique français, maire de Belfort (1935-1941;1945;1958-1964), député du Territoire de Belfort (1945-1951; 1956-1958)
